--- a/public/discipline-assesment/discipline-assesment (3).xlsx
+++ b/public/discipline-assesment/discipline-assesment (3).xlsx
@@ -8,15 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC2C5485-8EB6-DA41-9439-30C27726303E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AF364AC-89B1-5E40-9A9F-807E44E703BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14920" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -48,10 +56,10 @@
     <t>Terlambat</t>
   </si>
   <si>
-    <t>EN-4-070</t>
+    <t>KJ-6-168</t>
   </si>
   <si>
-    <t>Retno</t>
+    <t>Solihin</t>
   </si>
 </sst>
 </file>
@@ -70,14 +78,14 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -539,7 +547,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/public/discipline-assesment/discipline-assesment (3).xlsx
+++ b/public/discipline-assesment/discipline-assesment (3).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AF364AC-89B1-5E40-9A9F-807E44E703BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9807040-29FD-8740-BD28-AB83A4E08CC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14920" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,10 +56,10 @@
     <t>Terlambat</t>
   </si>
   <si>
-    <t>KJ-6-168</t>
+    <t>EN-4-072</t>
   </si>
   <si>
-    <t>Solihin</t>
+    <t>Agus C</t>
   </si>
 </sst>
 </file>
@@ -547,7 +547,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/public/discipline-assesment/discipline-assesment (3).xlsx
+++ b/public/discipline-assesment/discipline-assesment (3).xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9807040-29FD-8740-BD28-AB83A4E08CC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83611B84-BAF6-1840-8151-62409780D572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14920" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>Bulan</t>
   </si>
@@ -56,10 +56,10 @@
     <t>Terlambat</t>
   </si>
   <si>
-    <t>EN-4-072</t>
-  </si>
-  <si>
-    <t>Agus C</t>
+    <t>EN-4-095</t>
+  </si>
+  <si>
+    <t>Rahmat H</t>
   </si>
 </sst>
 </file>
@@ -544,10 +544,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -582,7 +582,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B2" s="4">
         <v>2024</v>
@@ -605,7 +605,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B3" s="4">
         <v>2024</v>
@@ -626,7 +626,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B4" s="4">
         <v>2024</v>
@@ -646,67 +646,31 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4">
-        <v>2024</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>7</v>
-      </c>
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
       <c r="D5" s="4"/>
-      <c r="E5" s="5">
-        <v>0</v>
-      </c>
-      <c r="F5" s="5">
-        <v>0</v>
-      </c>
-      <c r="G5" s="5">
-        <v>2</v>
-      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4">
-        <v>2024</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>7</v>
-      </c>
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
       <c r="D6" s="4"/>
-      <c r="E6" s="5">
-        <v>0</v>
-      </c>
-      <c r="F6" s="5">
-        <v>0</v>
-      </c>
-      <c r="G6" s="5">
-        <v>0</v>
-      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4">
-        <v>2024</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>7</v>
-      </c>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
       <c r="D7" s="4"/>
-      <c r="E7" s="5">
-        <v>0</v>
-      </c>
-      <c r="F7" s="5">
-        <v>0</v>
-      </c>
-      <c r="G7" s="5">
-        <v>0</v>
-      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
@@ -807,33 +771,6 @@
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
